--- a/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - invrot/Roxie_vs_MM_NormalMCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - invrot.xlsx
+++ b/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - invrot/Roxie_vs_MM_NormalMCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - invrot.xlsx
@@ -573,49 +573,49 @@
         <v>-1200</v>
       </c>
       <c r="C2">
-        <v>-1.286621363288464</v>
+        <v>-1.286628148653262</v>
       </c>
       <c r="D2">
-        <v>-0.02431400209940229</v>
+        <v>-0.02431381815772318</v>
       </c>
       <c r="E2">
-        <v>-0.009188681411248262</v>
+        <v>-0.009188326485992869</v>
       </c>
       <c r="F2">
-        <v>-0.001597776943018306</v>
+        <v>-0.001597709818970398</v>
       </c>
       <c r="G2">
-        <v>0.000400768948787595</v>
+        <v>0.0004007530091665467</v>
       </c>
       <c r="H2">
-        <v>0.0001901307352769578</v>
+        <v>0.0001901685791881331</v>
       </c>
       <c r="I2">
-        <v>-5.161207957056105E-06</v>
+        <v>-5.191842738194795E-06</v>
       </c>
       <c r="J2">
-        <v>-0.0001902350557264527</v>
+        <v>-0.0001902270022700776</v>
       </c>
       <c r="K2">
-        <v>-0.0001356626646180455</v>
+        <v>-0.0001356770913226971</v>
       </c>
       <c r="L2">
-        <v>3.394194386412165E-21</v>
+        <v>-8.33172219609066E-21</v>
       </c>
       <c r="M2">
-        <v>0.0001377340648170557</v>
+        <v>0.0001377109005143068</v>
       </c>
       <c r="N2">
-        <v>-1.646914934449653E-06</v>
+        <v>-1.715433706793781E-06</v>
       </c>
       <c r="O2">
-        <v>-5.966291819231091E-05</v>
+        <v>-5.966434999258787E-05</v>
       </c>
       <c r="P2">
-        <v>2.942286068853049E-05</v>
+        <v>2.946170407613151E-05</v>
       </c>
       <c r="Q2">
-        <v>3.373414576598117E-05</v>
+        <v>3.371535453363843E-05</v>
       </c>
       <c r="R2">
         <v>-0.2988425617549172</v>
@@ -671,49 +671,49 @@
         <v>-600</v>
       </c>
       <c r="C3">
-        <v>3890.206936631382</v>
+        <v>3890.206944864586</v>
       </c>
       <c r="D3">
-        <v>3.042883979616621</v>
+        <v>3.042882519342776</v>
       </c>
       <c r="E3">
-        <v>-8.566129188322497</v>
+        <v>-8.566127867062702</v>
       </c>
       <c r="F3">
-        <v>0.6509032995493917</v>
+        <v>0.6509022778724853</v>
       </c>
       <c r="G3">
-        <v>-4.889218474025564</v>
+        <v>-4.889218031852224</v>
       </c>
       <c r="H3">
-        <v>0.3730697397875899</v>
+        <v>0.3730694859265904</v>
       </c>
       <c r="I3">
-        <v>-4.370425843409024</v>
+        <v>-4.370426013442477</v>
       </c>
       <c r="J3">
-        <v>0.1106657993260357</v>
+        <v>0.1106661370776744</v>
       </c>
       <c r="K3">
-        <v>-1.127593789213033</v>
+        <v>-1.127593621729757</v>
       </c>
       <c r="L3">
-        <v>5.486133585982818E-19</v>
+        <v>2.539643144113739E-18</v>
       </c>
       <c r="M3">
-        <v>-0.005615841148308875</v>
+        <v>-0.00561612931268395</v>
       </c>
       <c r="N3">
-        <v>0.0798061080061023</v>
+        <v>0.07980605069565032</v>
       </c>
       <c r="O3">
-        <v>-0.6299002549508955</v>
+        <v>-0.6299002847380365</v>
       </c>
       <c r="P3">
-        <v>-0.002581195260125191</v>
+        <v>-0.002581300779359964</v>
       </c>
       <c r="Q3">
-        <v>-0.001862882757225616</v>
+        <v>-0.001862405623332049</v>
       </c>
       <c r="R3">
         <v>3883.249378802444</v>
@@ -769,49 +769,49 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10000</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="D4">
-        <v>0.5174801218910263</v>
+        <v>0.5174788802044762</v>
       </c>
       <c r="E4">
-        <v>-7.953117320765971</v>
+        <v>-7.953123667262215</v>
       </c>
       <c r="F4">
-        <v>0.5627321914706952</v>
+        <v>0.5627281099094644</v>
       </c>
       <c r="G4">
-        <v>-6.387797494015217</v>
+        <v>-6.387799903847707</v>
       </c>
       <c r="H4">
-        <v>0.324087579586526</v>
+        <v>0.324088151959078</v>
       </c>
       <c r="I4">
-        <v>0.5971357585697724</v>
+        <v>0.5971350954597362</v>
       </c>
       <c r="J4">
-        <v>0.07364767512034119</v>
+        <v>0.07364789773916577</v>
       </c>
       <c r="K4">
-        <v>1.240874942164785</v>
+        <v>1.240875420663939</v>
       </c>
       <c r="L4">
-        <v>-2.951133988083405E-17</v>
+        <v>4.336351179762379E-20</v>
       </c>
       <c r="M4">
-        <v>2.968015549345504</v>
+        <v>2.968015644032008</v>
       </c>
       <c r="N4">
-        <v>0.01835766016984368</v>
+        <v>0.01835768589162691</v>
       </c>
       <c r="O4">
-        <v>-1.791650681036517</v>
+        <v>-1.791649774768875</v>
       </c>
       <c r="P4">
-        <v>0.01120403169468656</v>
+        <v>0.01120534535638887</v>
       </c>
       <c r="Q4">
-        <v>0.2492691773388665</v>
+        <v>0.2492697454198387</v>
       </c>
       <c r="R4">
         <v>9999.54449330356</v>
@@ -867,49 +867,49 @@
         <v>600</v>
       </c>
       <c r="C5">
-        <v>3923.306043787012</v>
+        <v>3923.306045577021</v>
       </c>
       <c r="D5">
-        <v>0.3410049780363858</v>
+        <v>0.3410012502985958</v>
       </c>
       <c r="E5">
-        <v>1.605477577601349</v>
+        <v>1.605475350307333</v>
       </c>
       <c r="F5">
-        <v>-0.174360599916767</v>
+        <v>-0.1743655155998315</v>
       </c>
       <c r="G5">
-        <v>-0.4723282031413276</v>
+        <v>-0.4723297703053698</v>
       </c>
       <c r="H5">
-        <v>-0.1682356311438473</v>
+        <v>-0.1682395250274659</v>
       </c>
       <c r="I5">
-        <v>-2.834004016074103</v>
+        <v>-2.834004187010684</v>
       </c>
       <c r="J5">
-        <v>-0.02764331652217246</v>
+        <v>-0.02764257891549588</v>
       </c>
       <c r="K5">
-        <v>-0.6138030415590685</v>
+        <v>-0.6138027067223177</v>
       </c>
       <c r="L5">
-        <v>-6.215612241471063E-18</v>
+        <v>1.430876399407762E-18</v>
       </c>
       <c r="M5">
-        <v>0.2338496319586782</v>
+        <v>0.2338507708283584</v>
       </c>
       <c r="N5">
-        <v>-0.02741491085048938</v>
+        <v>-0.02741609339248798</v>
       </c>
       <c r="O5">
-        <v>-0.5527663740718013</v>
+        <v>-0.5527658240200304</v>
       </c>
       <c r="P5">
-        <v>-0.009559706976012014</v>
+        <v>-0.009559149030293361</v>
       </c>
       <c r="Q5">
-        <v>0.03417079081694499</v>
+        <v>0.03417090022591734</v>
       </c>
       <c r="R5">
         <v>3924.583743737668</v>
@@ -965,49 +965,49 @@
         <v>1200</v>
       </c>
       <c r="C6">
-        <v>0.1666585782042735</v>
+        <v>0.1666556344794721</v>
       </c>
       <c r="D6">
-        <v>0.0008387114090503006</v>
+        <v>0.0008386785728431926</v>
       </c>
       <c r="E6">
-        <v>-0.0001183604646193138</v>
+        <v>-0.0001183968707950707</v>
       </c>
       <c r="F6">
-        <v>6.856116626526628E-05</v>
+        <v>6.855260580468072E-05</v>
       </c>
       <c r="G6">
-        <v>1.873365102969125E-06</v>
+        <v>1.88150256656537E-06</v>
       </c>
       <c r="H6">
-        <v>-1.096076798121488E-05</v>
+        <v>-1.096662179784184E-05</v>
       </c>
       <c r="I6">
-        <v>-9.125040450551544E-06</v>
+        <v>-9.117803704310661E-06</v>
       </c>
       <c r="J6">
-        <v>6.745844599629214E-06</v>
+        <v>6.737342591009296E-06</v>
       </c>
       <c r="K6">
-        <v>9.783703116395704E-06</v>
+        <v>9.77616159566873E-06</v>
       </c>
       <c r="L6">
-        <v>5.712463864968541E-23</v>
+        <v>-4.097135295632946E-23</v>
       </c>
       <c r="M6">
-        <v>-2.61096556976632E-06</v>
+        <v>-2.605182504857697E-06</v>
       </c>
       <c r="N6">
-        <v>-4.456938624980689E-06</v>
+        <v>-4.461668180322569E-06</v>
       </c>
       <c r="O6">
-        <v>-1.44710211052747E-06</v>
+        <v>-1.461920858608725E-06</v>
       </c>
       <c r="P6">
-        <v>2.971479262980918E-06</v>
+        <v>2.972279982357865E-06</v>
       </c>
       <c r="Q6">
-        <v>-4.535639167659235E-06</v>
+        <v>-4.538792572180794E-06</v>
       </c>
       <c r="R6">
         <v>1.629919257347524</v>
